--- a/biology/Zoologie/Heptathela/Heptathela.xlsx
+++ b/biology/Zoologie/Heptathela/Heptathela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heptathela est un genre d'araignées mésothèles de la famille des Heptathelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heptathela est un genre d'araignées mésothèles de la famille des Heptathelidae.
 Le nom du genre heptathela est formé des deux mots grecs hepta (sept) et thèlè (mamelon), ce genre d'araignée possédant sept filières sériciformes.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Japon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Japon.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 07/06/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 07/06/2022) :
 Heptathela aha Xu, Ono, Kuntner, Liu &amp; Li, 2019
 Heptathela amamiensis Haupt, 1983
 Heptathela crypta Xu, Ono, Kuntner, Liu &amp; Li, 2019
@@ -593,10 +609,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Kishida en 1923 dans les Liphistiidae. Il est placé dans les Heptathelidae par Petrunkevitch en 1939[3], dans les Liphistiidae par Raven en 1985[4]puis dans les Heptathelidae par Li en 2022[5].
-Schwendinger et Ono en 2011[6] avait placé en synonymie Nanthela, Sinothela et Songthela avec Heptathela mais le genre a été démembré par Xu, Liu, Chen, Ono, Li et Kuntner en 2015[7] puis révisé par Xu, Ono, Kuntner, Liu et Li en 2019[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Kishida en 1923 dans les Liphistiidae. Il est placé dans les Heptathelidae par Petrunkevitch en 1939, dans les Liphistiidae par Raven en 1985puis dans les Heptathelidae par Li en 2022.
+Schwendinger et Ono en 2011 avait placé en synonymie Nanthela, Sinothela et Songthela avec Heptathela mais le genre a été démembré par Xu, Liu, Chen, Ono, Li et Kuntner en 2015 puis révisé par Xu, Ono, Kuntner, Liu et Li en 2019.
 </t>
         </is>
       </c>
@@ -625,7 +643,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kishida, 1923 : « Heptathela, a new genus of liphistiid spiders. » Annotationes Zoologicae Japonenses, vol. 10, p. 235-242.</t>
         </is>
